--- a/Common.xlsx
+++ b/Common.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Documents\CW-CARES-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F98E685-B2EB-42F0-BA76-A59B68DD1A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943B6EF4-1F42-49AF-A995-15070CD3D677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="196">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1201,7 +1201,7 @@
   <sheetViews>
     <sheetView zoomScale="81" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2242,9 +2242,7 @@
       <c r="C38" s="33">
         <v>1</v>
       </c>
-      <c r="D38" s="54" t="s">
-        <v>38</v>
-      </c>
+      <c r="D38" s="54"/>
       <c r="K38" s="33" t="s">
         <v>38</v>
       </c>
@@ -2262,13 +2260,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F9DA7-E1DF-4693-BE47-8AD0BDAB98C4}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
@@ -2843,9 +2842,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
   <dimension ref="A1:CB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S40" sqref="S40"/>
+      <selection pane="bottomLeft" activeCell="V37" sqref="V37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7022,6 +7021,7 @@
       <c r="C37" s="33">
         <v>1</v>
       </c>
+      <c r="T37" s="41"/>
       <c r="V37" s="33" t="s">
         <v>195</v>
       </c>
@@ -7035,7 +7035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78C0EF4-5C5D-4057-B6F9-0807F6421FD3}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -7792,12 +7792,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8018,19 +8019,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8055,11 +8057,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Common.xlsx
+++ b/Common.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Documents\CW-CARES-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943B6EF4-1F42-49AF-A995-15070CD3D677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028214DC-3C1A-449B-A298-8CEE4A1B00F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
@@ -626,7 +626,7 @@
     <t>testT4258</t>
   </si>
   <si>
-    <t>FOL-000001395626</t>
+    <t>FOL-000001214004</t>
   </si>
 </sst>
 </file>
@@ -2842,9 +2842,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
   <dimension ref="A1:CB37"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V37" sqref="V37"/>
+      <selection pane="bottomLeft" activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7035,7 +7035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78C0EF4-5C5D-4057-B6F9-0807F6421FD3}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -7792,13 +7792,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8019,20 +8018,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8057,9 +8055,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Common.xlsx
+++ b/Common.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Documents\CW-CARES-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028214DC-3C1A-449B-A298-8CEE4A1B00F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A14FBD-384F-460C-A296-271398B3F787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="196">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -626,7 +626,7 @@
     <t>testT4258</t>
   </si>
   <si>
-    <t>FOL-000001214004</t>
+    <t>FOL-000001395626</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="81" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
@@ -2842,9 +2842,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
   <dimension ref="A1:CB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W38" sqref="W38"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7021,7 +7021,9 @@
       <c r="C37" s="33">
         <v>1</v>
       </c>
-      <c r="T37" s="41"/>
+      <c r="T37" s="41" t="s">
+        <v>66</v>
+      </c>
       <c r="V37" s="33" t="s">
         <v>195</v>
       </c>

--- a/Common.xlsx
+++ b/Common.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Documents\CW-CARES-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A14FBD-384F-460C-A296-271398B3F787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF4D6C3-7404-442D-A29C-2FCFBFAB625D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -626,7 +626,7 @@
     <t>testT4258</t>
   </si>
   <si>
-    <t>FOL-000001395626</t>
+    <t>FOL-000001214004</t>
   </si>
 </sst>
 </file>
@@ -2842,9 +2842,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
   <dimension ref="A1:CB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V37" sqref="V37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Common.xlsx
+++ b/Common.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Documents\CW-CARES-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF4D6C3-7404-442D-A29C-2FCFBFAB625D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22D155F-1A24-4C78-8D35-ECE1F8F1BE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -626,7 +626,7 @@
     <t>testT4258</t>
   </si>
   <si>
-    <t>FOL-000001214004</t>
+    <t>FOL-000001395626</t>
   </si>
 </sst>
 </file>
@@ -2844,7 +2844,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V37" sqref="V37"/>
+      <selection pane="bottomLeft" activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Common.xlsx
+++ b/Common.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Documents\CW-CARES-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22D155F-1A24-4C78-8D35-ECE1F8F1BE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748126E7-BE30-4BD4-81C0-9C1EFD978BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
@@ -572,9 +572,6 @@
     <t>INV_CASE_ID1</t>
   </si>
   <si>
-    <t>FOL-000001342407</t>
-  </si>
-  <si>
     <t>APPROVAL_AUDIT_HISTORY_TAB</t>
   </si>
   <si>
@@ -621,6 +618,9 @@
   </si>
   <si>
     <t>Fresno</t>
+  </si>
+  <si>
+    <t>NON_INV_CASE_ID1</t>
   </si>
   <si>
     <t>testT4258</t>
@@ -701,7 +701,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,6 +782,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -827,7 +833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -882,7 +888,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1199,9 +1206,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="81" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2082,8 +2089,8 @@
       <c r="C33" s="52">
         <v>1</v>
       </c>
-      <c r="D33" s="52" t="s">
-        <v>20</v>
+      <c r="D33" s="47" t="s">
+        <v>38</v>
       </c>
       <c r="E33" s="52"/>
       <c r="F33" s="52"/>
@@ -2242,13 +2249,11 @@
       <c r="C38" s="33">
         <v>1</v>
       </c>
-      <c r="D38" s="54"/>
+      <c r="D38" s="55"/>
       <c r="K38" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="L38" s="22" t="s">
-        <v>39</v>
-      </c>
+      <c r="L38" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2260,14 +2265,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F9DA7-E1DF-4693-BE47-8AD0BDAB98C4}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
@@ -2842,9 +2846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
   <dimension ref="A1:CB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W36" sqref="W36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6474,7 +6478,9 @@
       </c>
       <c r="K32" s="52"/>
       <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
+      <c r="M32" s="52" t="s">
+        <v>66</v>
+      </c>
       <c r="N32" s="52"/>
       <c r="O32" s="52"/>
       <c r="P32" s="52"/>
@@ -6549,93 +6555,19 @@
       <c r="CA32" s="49"/>
       <c r="CB32" s="49"/>
     </row>
-    <row r="33" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="49" t="s">
+    <row r="33" spans="1:80" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="49">
-        <v>1</v>
-      </c>
-      <c r="C33" s="49">
-        <v>1</v>
-      </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="W33" s="49"/>
-      <c r="X33" s="49"/>
-      <c r="AA33" s="49"/>
-      <c r="AB33" s="49"/>
-      <c r="AC33" s="49"/>
-      <c r="AD33" s="49"/>
-      <c r="AE33" s="49"/>
-      <c r="AF33" s="49"/>
-      <c r="AG33" s="49"/>
-      <c r="AH33" s="49"/>
-      <c r="AI33" s="49"/>
-      <c r="AJ33" s="49"/>
-      <c r="AK33" s="49"/>
-      <c r="AL33" s="49"/>
-      <c r="AM33" s="49"/>
-      <c r="AN33" s="49"/>
-      <c r="AO33" s="49"/>
-      <c r="AP33" s="49"/>
-      <c r="AQ33" s="49"/>
-      <c r="AR33" s="49"/>
-      <c r="AS33" s="49"/>
-      <c r="AT33" s="49"/>
-      <c r="AU33" s="49"/>
-      <c r="AV33" s="49"/>
-      <c r="AW33" s="49"/>
-      <c r="AX33" s="49"/>
-      <c r="AY33" s="49"/>
-      <c r="AZ33" s="49"/>
-      <c r="BA33" s="49"/>
-      <c r="BB33" s="49"/>
-      <c r="BC33" s="49"/>
-      <c r="BD33" s="49"/>
-      <c r="BE33" s="49"/>
-      <c r="BF33" s="49"/>
-      <c r="BG33" s="49"/>
-      <c r="BH33" s="49"/>
-      <c r="BI33" s="49"/>
-      <c r="BJ33" s="49"/>
-      <c r="BK33" s="49"/>
-      <c r="BL33" s="49"/>
-      <c r="BM33" s="49"/>
-      <c r="BN33" s="49"/>
-      <c r="BO33" s="49"/>
-      <c r="BP33" s="49"/>
-      <c r="BQ33" s="49"/>
-      <c r="BR33" s="49"/>
-      <c r="BS33" s="49"/>
-      <c r="BT33" s="49"/>
-      <c r="BU33" s="49"/>
-      <c r="BV33" s="49"/>
-      <c r="BW33" s="49"/>
-      <c r="BX33" s="49"/>
-      <c r="BY33" s="49"/>
-      <c r="BZ33" s="49"/>
-      <c r="CA33" s="49"/>
-      <c r="CB33" s="49"/>
+      <c r="B33" s="54">
+        <v>1</v>
+      </c>
+      <c r="C33" s="54">
+        <v>1</v>
+      </c>
+      <c r="V33" s="54" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="34" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="49" t="s">
@@ -7070,46 +7002,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="H1" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="I1" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="J1" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="K1" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="L1" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="M1" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="N1" s="49" t="s">
         <v>187</v>
-      </c>
-      <c r="N1" s="49" t="s">
-        <v>188</v>
       </c>
       <c r="O1" s="49" t="s">
         <v>106</v>
       </c>
       <c r="P1" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7225,7 +7157,7 @@
         <v>66</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G4" s="49" t="s">
         <v>161</v>
@@ -7276,7 +7208,7 @@
         <v>66</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G5" s="49" t="s">
         <v>161</v>
@@ -7327,7 +7259,7 @@
         <v>66</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>161</v>
@@ -7360,7 +7292,7 @@
         <v>64</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7380,7 +7312,7 @@
         <v>66</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>161</v>
@@ -7413,7 +7345,7 @@
         <v>64</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7433,7 +7365,7 @@
         <v>66</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G8" s="33" t="s">
         <v>161</v>
@@ -7486,7 +7418,7 @@
         <v>66</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G9" s="32" t="s">
         <v>161</v>
@@ -7519,7 +7451,7 @@
         <v>64</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7539,7 +7471,7 @@
         <v>66</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>161</v>
@@ -7572,7 +7504,7 @@
         <v>64</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7592,7 +7524,7 @@
         <v>66</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G11" s="32" t="s">
         <v>161</v>
@@ -7625,7 +7557,7 @@
         <v>64</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7645,7 +7577,7 @@
         <v>66</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G12" s="52" t="s">
         <v>161</v>
@@ -7678,7 +7610,7 @@
         <v>64</v>
       </c>
       <c r="Q12" s="53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7698,7 +7630,7 @@
         <v>66</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G13" s="32" t="s">
         <v>161</v>
@@ -7731,7 +7663,7 @@
         <v>64</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7751,7 +7683,7 @@
         <v>66</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G14" s="52" t="s">
         <v>161</v>
@@ -7784,7 +7716,7 @@
         <v>64</v>
       </c>
       <c r="Q14" s="53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -7794,12 +7726,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8020,19 +7953,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8057,11 +7991,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Common.xlsx
+++ b/Common.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Documents\CW-CARES-EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748126E7-BE30-4BD4-81C0-9C1EFD978BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F61936E-D02E-46FD-ACCC-1C57A87B9F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="196">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -260,9 +260,6 @@
     <t>SCREENINGS</t>
   </si>
   <si>
-    <t>FOLIO</t>
-  </si>
-  <si>
     <t>PERSONS</t>
   </si>
   <si>
@@ -621,6 +618,9 @@
   </si>
   <si>
     <t>NON_INV_CASE_ID1</t>
+  </si>
+  <si>
+    <t>CARES_ITEMS</t>
   </si>
   <si>
     <t>testT4258</t>
@@ -1206,9 +1206,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+    <sheetView zoomScale="81" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2846,9 +2846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
   <dimension ref="A1:CB37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2860,7 +2860,7 @@
     <col min="6" max="6" width="23.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.54296875" style="2" bestFit="1" customWidth="1"/>
@@ -2948,220 +2948,220 @@
         <v>72</v>
       </c>
       <c r="I1" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="K1" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="L1" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="M1" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="N1" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="O1" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="P1" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="Q1" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="R1" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="S1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="AG1" s="31" t="s">
+      <c r="AH1" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI1" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="AH1" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI1" s="31" t="s">
+      <c r="AJ1" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="AJ1" s="31" t="s">
+      <c r="AK1" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="AK1" s="31" t="s">
+      <c r="AL1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AM1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="AN1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AO1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AP1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AR1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AU1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AV1" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AW1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="AW1" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AY1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="BA1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BB1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="BB1" s="10" t="s">
+      <c r="BC1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BD1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BE1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BF1" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="BF1" s="49" t="s">
+      <c r="BG1" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="BG1" s="49" t="s">
+      <c r="BH1" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="BH1" s="49" t="s">
+      <c r="BI1" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="BI1" s="31" t="s">
+      <c r="BJ1" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="BJ1" s="49" t="s">
+      <c r="BK1" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="BK1" s="49" t="s">
+      <c r="BL1" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="BL1" s="31" t="s">
+      <c r="BM1" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="BM1" s="31" t="s">
+      <c r="BN1" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="BN1" s="49" t="s">
+      <c r="BO1" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="BO1" s="49" t="s">
+      <c r="BP1" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="BP1" s="49" t="s">
+      <c r="BQ1" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="BR1" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="BS1" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="BQ1" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="BR1" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="BS1" s="49" t="s">
+      <c r="BT1" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="BT1" s="49" t="s">
+      <c r="BU1" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="BU1" s="49" t="s">
+      <c r="BV1" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="BV1" s="49" t="s">
+      <c r="BW1" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="BW1" s="49" t="s">
+      <c r="BX1" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="BX1" s="49" t="s">
+      <c r="BY1" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="BY1" s="49" t="s">
+      <c r="BZ1" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="BZ1" s="49" t="s">
+      <c r="CA1" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="CA1" s="49" t="s">
+      <c r="CB1" s="49" t="s">
         <v>139</v>
-      </c>
-      <c r="CB1" s="49" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3202,38 +3202,38 @@
       <c r="AE2" s="49"/>
       <c r="AF2" s="49"/>
       <c r="AG2" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH2" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI2" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ2" s="49"/>
       <c r="AK2" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL2" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AM2" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AN2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AO2" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AP2" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AR2" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="AR2" s="8" t="s">
-        <v>148</v>
       </c>
       <c r="AS2" s="8"/>
       <c r="AT2" s="8"/>
@@ -3244,43 +3244,43 @@
       <c r="AY2" s="8"/>
       <c r="AZ2" s="8"/>
       <c r="BA2" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB2" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="BB2" s="8" t="s">
+      <c r="BC2" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="BC2" s="8" t="s">
+      <c r="BD2" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="BD2" s="8" t="s">
+      <c r="BE2" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="BE2" s="8" t="s">
+      <c r="BF2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="BG2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="BH2" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="BF2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="BG2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="BH2" s="8" t="s">
+      <c r="BI2" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="BI2" s="8" t="s">
+      <c r="BJ2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="BK2" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="BJ2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="BK2" s="8" t="s">
+      <c r="BL2" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="BL2" s="31" t="s">
+      <c r="BM2" s="31" t="s">
         <v>157</v>
-      </c>
-      <c r="BM2" s="31" t="s">
-        <v>158</v>
       </c>
       <c r="BN2" s="31"/>
       <c r="BO2" s="31"/>
@@ -3534,10 +3534,10 @@
         <v>66</v>
       </c>
       <c r="U5" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V5" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W5" s="34"/>
       <c r="X5" s="34"/>
@@ -3582,7 +3582,7 @@
         <v>67</v>
       </c>
       <c r="BK5" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="BL5" s="34"/>
       <c r="BM5" s="34"/>
@@ -3684,7 +3684,7 @@
         <v>67</v>
       </c>
       <c r="BK6" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BL6" s="34"/>
       <c r="BM6" s="34"/>
@@ -3718,16 +3718,16 @@
         <v>66</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
@@ -3744,10 +3744,10 @@
         <v>66</v>
       </c>
       <c r="U7" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V7" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W7" s="34"/>
       <c r="X7" s="34"/>
@@ -3792,7 +3792,7 @@
         <v>67</v>
       </c>
       <c r="BK7" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BL7" s="34"/>
       <c r="BM7" s="34"/>
@@ -4042,38 +4042,38 @@
       <c r="AE10" s="49"/>
       <c r="AF10" s="49"/>
       <c r="AG10" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH10" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI10" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ10" s="49"/>
       <c r="AK10" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL10" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="AL10" s="8" t="s">
+      <c r="AM10" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="AM10" s="8" t="s">
+      <c r="AN10" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="AN10" s="8" t="s">
+      <c r="AO10" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="AO10" s="8" t="s">
+      <c r="AP10" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="AP10" s="8" t="s">
+      <c r="AQ10" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="AQ10" s="8" t="s">
+      <c r="AR10" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="AR10" s="8" t="s">
-        <v>148</v>
       </c>
       <c r="AS10" s="8"/>
       <c r="AT10" s="8"/>
@@ -4084,31 +4084,31 @@
       <c r="AY10" s="8"/>
       <c r="AZ10" s="8"/>
       <c r="BA10" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB10" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="BB10" s="8" t="s">
+      <c r="BC10" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="BC10" s="8" t="s">
+      <c r="BD10" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="BD10" s="8" t="s">
+      <c r="BE10" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="BE10" s="8" t="s">
+      <c r="BF10" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="BG10" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="BH10" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="BF10" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="BG10" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="BH10" s="8" t="s">
+      <c r="BI10" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="BI10" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="BJ10" s="49"/>
       <c r="BK10" s="49"/>
@@ -4155,7 +4155,9 @@
       <c r="H11" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="52"/>
+      <c r="I11" s="52" t="s">
+        <v>66</v>
+      </c>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
       <c r="L11" s="52"/>
@@ -4170,10 +4172,10 @@
         <v>66</v>
       </c>
       <c r="U11" s="52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V11" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W11" s="52"/>
       <c r="X11" s="52"/>
@@ -4251,13 +4253,13 @@
         <v>66</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H12" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I12" s="52"/>
       <c r="J12" s="52"/>
@@ -4274,10 +4276,10 @@
         <v>66</v>
       </c>
       <c r="U12" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V12" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W12" s="52"/>
       <c r="X12" s="52"/>
@@ -4364,46 +4366,46 @@
         <v>66</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L13" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M13" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O13" s="33" t="s">
         <v>66</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S13" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T13" s="33" t="s">
         <v>66</v>
       </c>
       <c r="U13" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V13" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W13" s="33"/>
       <c r="X13" s="33"/>
@@ -4504,10 +4506,10 @@
         <v>66</v>
       </c>
       <c r="U14" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V14" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W14" s="32"/>
       <c r="X14" s="32"/>
@@ -4608,10 +4610,10 @@
         <v>66</v>
       </c>
       <c r="U15" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V15" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W15" s="32"/>
       <c r="X15" s="32"/>
@@ -4715,7 +4717,7 @@
       </c>
       <c r="U16" s="49"/>
       <c r="V16" s="49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W16" s="49"/>
       <c r="X16" s="49"/>
@@ -4814,10 +4816,10 @@
         <v>66</v>
       </c>
       <c r="U17" s="49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V17" s="49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W17" s="49"/>
       <c r="X17" s="49"/>
@@ -4868,28 +4870,28 @@
       <c r="BO17" s="49"/>
       <c r="BP17" s="49"/>
       <c r="BQ17" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="BR17" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="BR17" s="49" t="s">
+      <c r="BS17" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="BS17" s="49" t="s">
+      <c r="BT17" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="BT17" s="49" t="s">
+      <c r="BU17" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="BU17" s="49" t="s">
+      <c r="BV17" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="BV17" s="49" t="s">
+      <c r="BW17" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="BW17" s="49" t="s">
+      <c r="BX17" s="49" t="s">
         <v>169</v>
-      </c>
-      <c r="BX17" s="49" t="s">
-        <v>170</v>
       </c>
       <c r="BY17" s="49"/>
       <c r="BZ17" s="49"/>
@@ -4980,31 +4982,31 @@
       </c>
       <c r="BP18" s="49"/>
       <c r="BQ18" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="BR18" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="BR18" s="49" t="s">
+      <c r="BS18" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="BS18" s="49" t="s">
+      <c r="BT18" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="BT18" s="49" t="s">
+      <c r="BU18" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="BU18" s="49" t="s">
+      <c r="BV18" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="BV18" s="49" t="s">
+      <c r="BW18" s="49" t="s">
         <v>168</v>
-      </c>
-      <c r="BW18" s="49" t="s">
-        <v>169</v>
       </c>
       <c r="BX18" s="49"/>
       <c r="BY18" s="49"/>
       <c r="BZ18" s="49"/>
       <c r="CA18" s="49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="CB18" s="49"/>
     </row>
@@ -5088,37 +5090,37 @@
         <v>67</v>
       </c>
       <c r="BQ19" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="BR19" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="BR19" s="49" t="s">
+      <c r="BS19" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="BS19" s="49" t="s">
+      <c r="BT19" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="BT19" s="49" t="s">
+      <c r="BU19" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="BU19" s="49" t="s">
+      <c r="BV19" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="BV19" s="49" t="s">
+      <c r="BW19" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="BW19" s="49" t="s">
+      <c r="BX19" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="BX19" s="49" t="s">
+      <c r="BY19" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ19" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="CA19" s="49" t="s">
         <v>170</v>
-      </c>
-      <c r="BY19" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="BZ19" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="CA19" s="49" t="s">
-        <v>171</v>
       </c>
       <c r="CB19" s="49" t="s">
         <v>66</v>
@@ -5126,7 +5128,7 @@
     </row>
     <row r="20" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" s="38">
         <v>1</v>
@@ -5256,10 +5258,10 @@
         <v>66</v>
       </c>
       <c r="U21" s="53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V21" s="53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W21" s="53"/>
       <c r="X21" s="53"/>
@@ -5362,10 +5364,10 @@
         <v>66</v>
       </c>
       <c r="U22" s="53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V22" s="53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W22" s="53"/>
       <c r="X22" s="53"/>
@@ -5466,10 +5468,10 @@
         <v>66</v>
       </c>
       <c r="U23" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V23" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W23" s="32"/>
       <c r="X23" s="32"/>
@@ -5570,10 +5572,10 @@
         <v>66</v>
       </c>
       <c r="U24" s="52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V24" s="52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W24" s="52"/>
       <c r="X24" s="52"/>
@@ -5657,40 +5659,40 @@
         <v>66</v>
       </c>
       <c r="H25" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I25" s="41" t="s">
         <v>66</v>
       </c>
       <c r="J25" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K25" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L25" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M25" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N25" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O25" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P25" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q25" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R25" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S25" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T25" s="41" t="s">
         <v>66</v>
@@ -5728,10 +5730,10 @@
         <v>66</v>
       </c>
       <c r="U26" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V26" s="49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AQ26" s="12"/>
     </row>
@@ -5775,10 +5777,10 @@
         <v>66</v>
       </c>
       <c r="U27" s="52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V27" s="49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W27" s="52"/>
       <c r="X27" s="52"/>
@@ -5960,52 +5962,52 @@
         <v>66</v>
       </c>
       <c r="H29" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I29" s="49" t="s">
         <v>66</v>
       </c>
       <c r="J29" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K29" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L29" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M29" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N29" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O29" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P29" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q29" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R29" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S29" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T29" s="49" t="s">
         <v>66</v>
       </c>
       <c r="U29" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V29" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W29" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X29" s="49" t="s">
         <v>66</v>
@@ -6017,7 +6019,7 @@
         <v>66</v>
       </c>
       <c r="AA29" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AB29" s="49" t="s">
         <v>66</v>
@@ -6232,40 +6234,40 @@
         <v>66</v>
       </c>
       <c r="H31" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I31" s="47" t="s">
         <v>66</v>
       </c>
       <c r="J31" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K31" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L31" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M31" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N31" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O31" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P31" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q31" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R31" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S31" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T31" s="47" t="s">
         <v>66</v>
@@ -6491,10 +6493,10 @@
         <v>66</v>
       </c>
       <c r="U32" s="53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V32" s="53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W32" s="53"/>
       <c r="X32" s="53"/>
@@ -6566,7 +6568,7 @@
         <v>1</v>
       </c>
       <c r="V33" s="54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6592,52 +6594,52 @@
         <v>66</v>
       </c>
       <c r="H34" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I34" s="49" t="s">
         <v>66</v>
       </c>
       <c r="J34" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K34" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L34" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M34" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N34" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O34" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P34" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q34" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R34" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S34" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T34" s="49" t="s">
         <v>66</v>
       </c>
       <c r="U34" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V34" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W34" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X34" s="49"/>
       <c r="AA34" s="49"/>
@@ -6715,43 +6717,43 @@
         <v>66</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I35" s="41" t="s">
         <v>66</v>
       </c>
       <c r="J35" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K35" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L35" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M35" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N35" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O35" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P35" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q35" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R35" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S35" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T35" s="41" t="s">
         <v>66</v>
@@ -6759,7 +6761,7 @@
       <c r="U35" s="41"/>
       <c r="V35" s="41"/>
       <c r="W35" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X35" s="41"/>
       <c r="Y35" s="41"/>
@@ -6839,43 +6841,43 @@
         <v>66</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I36" s="41" t="s">
         <v>66</v>
       </c>
       <c r="J36" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K36" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L36" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M36" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N36" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O36" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P36" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q36" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R36" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S36" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T36" s="41" t="s">
         <v>66</v>
@@ -6883,7 +6885,7 @@
       <c r="U36" s="41"/>
       <c r="V36" s="41"/>
       <c r="W36" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X36" s="41"/>
       <c r="Y36" s="41"/>
@@ -7002,46 +7004,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="H1" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="I1" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="J1" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="K1" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="L1" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="M1" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="N1" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="O1" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" s="49" t="s">
+      <c r="Q1" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7157,10 +7159,10 @@
         <v>66</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H4" s="38" t="s">
         <v>67</v>
@@ -7208,10 +7210,10 @@
         <v>66</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H5" s="38" t="s">
         <v>67</v>
@@ -7259,10 +7261,10 @@
         <v>66</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>67</v>
@@ -7292,7 +7294,7 @@
         <v>64</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7312,10 +7314,10 @@
         <v>66</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>67</v>
@@ -7345,7 +7347,7 @@
         <v>64</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7365,10 +7367,10 @@
         <v>66</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>67</v>
@@ -7418,10 +7420,10 @@
         <v>66</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>67</v>
@@ -7451,7 +7453,7 @@
         <v>64</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7471,10 +7473,10 @@
         <v>66</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>67</v>
@@ -7504,7 +7506,7 @@
         <v>64</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7524,10 +7526,10 @@
         <v>66</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>67</v>
@@ -7557,7 +7559,7 @@
         <v>64</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7577,10 +7579,10 @@
         <v>66</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H12" s="53" t="s">
         <v>67</v>
@@ -7610,7 +7612,7 @@
         <v>64</v>
       </c>
       <c r="Q12" s="53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7630,10 +7632,10 @@
         <v>66</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>67</v>
@@ -7663,7 +7665,7 @@
         <v>64</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7683,10 +7685,10 @@
         <v>66</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H14" s="53" t="s">
         <v>67</v>
@@ -7716,7 +7718,7 @@
         <v>64</v>
       </c>
       <c r="Q14" s="53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/Common.xlsx
+++ b/Common.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Documents\CW-CARES-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F61936E-D02E-46FD-ACCC-1C57A87B9F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E3768E-D3DD-4C31-A548-DC06C701199C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="195">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -624,9 +624,6 @@
   </si>
   <si>
     <t>testT4258</t>
-  </si>
-  <si>
-    <t>FOL-000001395626</t>
   </si>
 </sst>
 </file>
@@ -2846,9 +2843,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
   <dimension ref="A1:CB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37:XFD37"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2873,7 +2870,7 @@
     <col min="19" max="19" width="33.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.1796875" style="2" customWidth="1"/>
     <col min="21" max="21" width="14.81640625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="16.54296875" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.26953125" style="39" customWidth="1"/>
     <col min="23" max="23" width="14.81640625" style="39" customWidth="1"/>
     <col min="24" max="24" width="24.54296875" style="39" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18" style="49" bestFit="1" customWidth="1"/>
@@ -6955,11 +6952,9 @@
       <c r="C37" s="33">
         <v>1</v>
       </c>
-      <c r="T37" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="V37" s="33" t="s">
-        <v>195</v>
+      <c r="T37" s="34"/>
+      <c r="V37" s="54" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -7728,13 +7723,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7955,20 +7949,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7993,9 +7986,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>